--- a/Excel/镇魂街/专属武器/personal_weapon.xlsx
+++ b/Excel/镇魂街/专属武器/personal_weapon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJStaffSpace\DataConfig\专属武器\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZHJcehua\DataConfig\专属武器\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C8227D-2CA5-4627-B55A-43392FAA73A0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C52E58-B518-4713-868F-DCF988FB8DED}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,19 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="98">
   <si>
     <t>标识</t>
   </si>
@@ -114,15 +121,6 @@
     <t>较对值</t>
   </si>
   <si>
-    <t>武器1</t>
-  </si>
-  <si>
-    <t>101#1000|102#1000</t>
-  </si>
-  <si>
-    <t>武器2</t>
-  </si>
-  <si>
     <t>唯一键（等级）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -163,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101#1000|102#1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>装备属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,80 +192,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000#1000#1000#1000#1000</t>
-  </si>
-  <si>
-    <t>1000#1000#1000#1000#1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000#1000#1000#1000#1000#1000</t>
-  </si>
-  <si>
-    <t>1000#1000#1000#1000#1000#1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武器3</t>
-  </si>
-  <si>
     <t>1#2#3#4</t>
   </si>
   <si>
-    <t>武器4</t>
-  </si>
-  <si>
-    <t>武器5</t>
-  </si>
-  <si>
-    <t>武器6</t>
-  </si>
-  <si>
-    <t>武器7</t>
-  </si>
-  <si>
-    <t>武器8</t>
-  </si>
-  <si>
-    <t>武器9</t>
-  </si>
-  <si>
-    <t>武器10</t>
-  </si>
-  <si>
-    <t>武器11</t>
-  </si>
-  <si>
-    <t>武器12</t>
-  </si>
-  <si>
-    <t>武器13</t>
-  </si>
-  <si>
-    <t>武器14</t>
-  </si>
-  <si>
-    <t>武器15</t>
-  </si>
-  <si>
-    <t>武器16</t>
-  </si>
-  <si>
-    <t>武器17</t>
-  </si>
-  <si>
-    <t>武器18</t>
-  </si>
-  <si>
-    <t>武器19</t>
-  </si>
-  <si>
-    <t>武器20</t>
-  </si>
-  <si>
-    <t>武器21</t>
-  </si>
-  <si>
     <t>0.5#0.5#0.5#0.5#0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,12 +211,142 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000#1000#1000#1000#1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每次强化增加的属性百分比 属性id#1级加成比例|属性id#1级加成比例，属性id#2级加成比例|属性id#2级加成比例。。。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101#10|102#10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1029#1030#1031#1032#1033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+  </si>
+  <si>
+    <t>许褚</t>
+  </si>
+  <si>
+    <t>典韦</t>
+  </si>
+  <si>
+    <t>唐流雨</t>
+  </si>
+  <si>
+    <t>李轩辕</t>
+  </si>
+  <si>
+    <t>项羽</t>
+  </si>
+  <si>
+    <t>天使缇娜</t>
+  </si>
+  <si>
+    <t>夏侯渊</t>
+  </si>
+  <si>
+    <t>徐晃</t>
+  </si>
+  <si>
+    <t>张郃</t>
+  </si>
+  <si>
+    <t>张飞</t>
+  </si>
+  <si>
+    <t>夏侯惇</t>
+  </si>
+  <si>
+    <t>塞伯罗斯</t>
+  </si>
+  <si>
+    <t>石灵明</t>
+  </si>
+  <si>
+    <t>于禁</t>
+  </si>
+  <si>
+    <t>西方龙</t>
+  </si>
+  <si>
+    <t>飞廉</t>
+  </si>
+  <si>
+    <t>噬日</t>
+  </si>
+  <si>
+    <t>食火蜥</t>
+  </si>
+  <si>
+    <t>高顺</t>
+  </si>
+  <si>
+    <t>烈风螳螂</t>
+  </si>
+  <si>
+    <t>1034#1035#1036#1037#1038#1039</t>
+  </si>
+  <si>
+    <t>1040#1041#1042#1043#1044#1045</t>
+  </si>
+  <si>
+    <t>1046#1047#1048#1049#1050#1051</t>
+  </si>
+  <si>
+    <t>1052#1053#1054#1055#1056#1057</t>
+  </si>
+  <si>
+    <t>1058#1059#1060#1061#1062#1063</t>
+  </si>
+  <si>
+    <t>1064#1065#1066#1067#1068#1069</t>
+  </si>
+  <si>
+    <t>1070#1071#1072#1073#1074#1075</t>
+  </si>
+  <si>
+    <t>1076#1077#1078#1079#1080#1081</t>
+  </si>
+  <si>
+    <t>1082#1083#1084#1085#1086#1087</t>
+  </si>
+  <si>
+    <t>1088#1089#1090#1091#1092#1093</t>
+  </si>
+  <si>
+    <t>1094#1095#1096#1097#1098#1099</t>
+  </si>
+  <si>
+    <t>1100#1101#1102#1103#1104#1105</t>
+  </si>
+  <si>
+    <t>1106#1107#1108#1109#1110#1111</t>
+  </si>
+  <si>
+    <t>1112#1113#1114#1115#1116#1117</t>
+  </si>
+  <si>
+    <t>1118#1119#1120#1121#1122#1123</t>
+  </si>
+  <si>
+    <t>1124#1125#1126#1127#1128#1129</t>
+  </si>
+  <si>
+    <t>1130#1131#1132#1133#1134#1135</t>
+  </si>
+  <si>
+    <t>1136#1137#1138#1139#1140#1141</t>
+  </si>
+  <si>
+    <t>1142#1143#1144#1145#1146#1147</t>
+  </si>
+  <si>
+    <t>1148#1149#1150#1151#1152#1153</t>
+  </si>
+  <si>
+    <t>1154#1155#1156#1157#1158#1159</t>
   </si>
 </sst>
 </file>
@@ -717,7 +770,7 @@
       <pane xSplit="4" ySplit="7" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -725,7 +778,7 @@
     <col min="1" max="1" width="10.875" style="4" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="4" customWidth="1"/>
     <col min="3" max="3" width="9.375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.375" style="4" customWidth="1"/>
     <col min="8" max="8" width="23.875" style="4" bestFit="1" customWidth="1"/>
@@ -733,7 +786,8 @@
     <col min="10" max="10" width="20.375" style="4" customWidth="1"/>
     <col min="11" max="11" width="16.875" style="4" customWidth="1"/>
     <col min="12" max="12" width="43" style="4" customWidth="1"/>
-    <col min="13" max="14" width="16" style="4" customWidth="1"/>
+    <col min="13" max="13" width="16" style="4" customWidth="1"/>
+    <col min="14" max="14" width="45.125" style="4" customWidth="1"/>
     <col min="15" max="15" width="59.25" style="4" customWidth="1"/>
     <col min="16" max="16" width="16" style="4" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="4"/>
@@ -786,7 +840,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.15">
@@ -797,13 +851,13 @@
         <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>16</v>
@@ -812,31 +866,31 @@
         <v>16</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.15">
@@ -891,10 +945,10 @@
     </row>
     <row r="4" spans="1:16" s="7" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>19</v>
@@ -903,7 +957,7 @@
         <v>20</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>21</v>
@@ -912,19 +966,19 @@
         <v>22</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>25</v>
@@ -933,10 +987,10 @@
         <v>26</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.15">
@@ -1020,43 +1074,43 @@
         <v>1102001</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F8" s="8">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="G8" s="8">
         <v>5</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K8" s="8">
         <v>10</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M8" s="8">
         <v>6</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P8" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.15">
@@ -1068,43 +1122,43 @@
         <v>1102002</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F9" s="8">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="G9" s="8">
         <v>5</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K9" s="8">
         <v>10</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M9" s="8">
         <v>6</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P9" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.15">
@@ -1116,43 +1170,43 @@
         <v>1102003</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F10" s="8">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="G10" s="8">
         <v>5</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J10" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K10" s="8">
         <v>10</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M10" s="8">
         <v>6</v>
       </c>
       <c r="N10" s="8" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P10" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.15">
@@ -1164,43 +1218,43 @@
         <v>1102004</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F11" s="8">
-        <v>1000</v>
+        <v>1011</v>
       </c>
       <c r="G11" s="8">
         <v>5</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J11" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K11" s="8">
         <v>10</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M11" s="8">
         <v>6</v>
       </c>
       <c r="N11" s="8" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P11" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.15">
@@ -1212,43 +1266,43 @@
         <v>1102005</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F12" s="8">
-        <v>1000</v>
+        <v>1012</v>
       </c>
       <c r="G12" s="8">
         <v>5</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J12" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K12" s="8">
         <v>10</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M12" s="8">
         <v>6</v>
       </c>
       <c r="N12" s="8" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P12" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.15">
@@ -1260,43 +1314,43 @@
         <v>1102006</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F13" s="8">
-        <v>1000</v>
+        <v>1013</v>
       </c>
       <c r="G13" s="8">
         <v>5</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K13" s="8">
         <v>10</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M13" s="8">
         <v>6</v>
       </c>
       <c r="N13" s="8" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="O13" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.15">
@@ -1308,43 +1362,43 @@
         <v>1102007</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F14" s="8">
-        <v>1000</v>
+        <v>1014</v>
       </c>
       <c r="G14" s="8">
         <v>5</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J14" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K14" s="8">
         <v>10</v>
       </c>
       <c r="L14" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M14" s="8">
         <v>6</v>
       </c>
       <c r="N14" s="8" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="O14" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P14" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.15">
@@ -1356,43 +1410,43 @@
         <v>1102008</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F15" s="8">
-        <v>1000</v>
+        <v>1015</v>
       </c>
       <c r="G15" s="8">
         <v>5</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J15" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K15" s="8">
         <v>10</v>
       </c>
       <c r="L15" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M15" s="8">
         <v>6</v>
       </c>
       <c r="N15" s="8" t="s">
-        <v>54</v>
+        <v>84</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P15" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.15">
@@ -1404,43 +1458,43 @@
         <v>1102009</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F16" s="8">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="G16" s="8">
         <v>5</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J16" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K16" s="8">
         <v>10</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M16" s="8">
         <v>6</v>
       </c>
       <c r="N16" s="8" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P16" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
@@ -1452,43 +1506,43 @@
         <v>1102010</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F17" s="8">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="G17" s="8">
         <v>5</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J17" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K17" s="8">
         <v>10</v>
       </c>
       <c r="L17" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M17" s="8">
         <v>6</v>
       </c>
       <c r="N17" s="8" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P17" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.15">
@@ -1500,43 +1554,43 @@
         <v>1102011</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F18" s="8">
-        <v>1000</v>
+        <v>1018</v>
       </c>
       <c r="G18" s="8">
         <v>5</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K18" s="8">
         <v>10</v>
       </c>
       <c r="L18" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M18" s="8">
         <v>6</v>
       </c>
       <c r="N18" s="8" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P18" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.15">
@@ -1548,43 +1602,43 @@
         <v>1102012</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F19" s="8">
-        <v>1000</v>
+        <v>1019</v>
       </c>
       <c r="G19" s="8">
         <v>5</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K19" s="8">
         <v>10</v>
       </c>
       <c r="L19" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M19" s="8">
         <v>6</v>
       </c>
       <c r="N19" s="8" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P19" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.15">
@@ -1596,43 +1650,43 @@
         <v>1102013</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F20" s="8">
-        <v>1000</v>
+        <v>1020</v>
       </c>
       <c r="G20" s="8">
         <v>5</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K20" s="8">
         <v>10</v>
       </c>
       <c r="L20" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M20" s="8">
         <v>6</v>
       </c>
       <c r="N20" s="8" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P20" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.15">
@@ -1644,43 +1698,43 @@
         <v>1102014</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F21" s="8">
-        <v>1000</v>
+        <v>1021</v>
       </c>
       <c r="G21" s="8">
         <v>5</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J21" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K21" s="8">
         <v>10</v>
       </c>
       <c r="L21" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M21" s="8">
         <v>6</v>
       </c>
       <c r="N21" s="8" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P21" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.15">
@@ -1692,43 +1746,43 @@
         <v>1102015</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F22" s="8">
-        <v>1000</v>
+        <v>1022</v>
       </c>
       <c r="G22" s="8">
         <v>5</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K22" s="8">
         <v>10</v>
       </c>
       <c r="L22" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M22" s="8">
         <v>6</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P22" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.15">
@@ -1740,43 +1794,43 @@
         <v>1102016</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F23" s="8">
-        <v>1000</v>
+        <v>1023</v>
       </c>
       <c r="G23" s="8">
         <v>5</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K23" s="8">
         <v>10</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M23" s="8">
         <v>6</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.15">
@@ -1788,43 +1842,43 @@
         <v>1102017</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F24" s="8">
-        <v>1000</v>
+        <v>1024</v>
       </c>
       <c r="G24" s="8">
         <v>5</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I24" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J24" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K24" s="8">
         <v>10</v>
       </c>
       <c r="L24" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M24" s="8">
         <v>6</v>
       </c>
       <c r="N24" s="8" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P24" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.15">
@@ -1836,43 +1890,43 @@
         <v>1102018</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F25" s="8">
-        <v>1000</v>
+        <v>1025</v>
       </c>
       <c r="G25" s="8">
         <v>5</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I25" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J25" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K25" s="8">
         <v>10</v>
       </c>
       <c r="L25" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M25" s="8">
         <v>6</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P25" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.15">
@@ -1884,43 +1938,43 @@
         <v>1102019</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F26" s="8">
-        <v>1000</v>
+        <v>1026</v>
       </c>
       <c r="G26" s="8">
         <v>5</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I26" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J26" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K26" s="8">
         <v>10</v>
       </c>
       <c r="L26" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M26" s="8">
         <v>6</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.15">
@@ -1932,43 +1986,43 @@
         <v>1102020</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F27" s="8">
-        <v>1000</v>
+        <v>1027</v>
       </c>
       <c r="G27" s="8">
         <v>5</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J27" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K27" s="8">
         <v>10</v>
       </c>
       <c r="L27" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M27" s="8">
         <v>6</v>
       </c>
       <c r="N27" s="8" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P27" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.15">
@@ -1980,43 +2034,43 @@
         <v>1102021</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F28" s="8">
-        <v>1000</v>
+        <v>1028</v>
       </c>
       <c r="G28" s="8">
         <v>5</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="I28" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J28" s="8" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="K28" s="8">
         <v>10</v>
       </c>
       <c r="L28" s="8" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="M28" s="8">
         <v>6</v>
       </c>
       <c r="N28" s="8" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="P28" s="8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
